--- a/public/excels/exports/2131232-export.xlsx
+++ b/public/excels/exports/2131232-export.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>HÓA ĐƠN VẬN CHUYỂN</t>
   </si>
@@ -164,46 +164,91 @@
     <t>PQ049</t>
   </si>
   <si>
+    <t>https://tomoniglobal.com/../assets/img/product/2020/1603954513.474413.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">イチョウ葉エキス粒 約240粒入 </t>
   </si>
   <si>
+    <t>https://tomoniglobal.com/../assets/img/product/2020/1603954566.563452.png</t>
+  </si>
+  <si>
     <t>ビタミンC粒 300粒入</t>
   </si>
   <si>
+    <t>https://tomoniglobal.com/../assets/img/product/2020/1603954602.178859.png</t>
+  </si>
+  <si>
     <t>オリヒロ ウコンエキス粒 520粒</t>
   </si>
   <si>
+    <t>https://tomoniglobal.com/../assets/img/product/2020/1603954626.489350.png</t>
+  </si>
+  <si>
     <t>モストチュアブル カルシウム（180粒入）</t>
   </si>
   <si>
+    <t>https://tomoniglobal.com/../assets/img/product/2020/1603954655.334419.png</t>
+  </si>
+  <si>
     <t>モストチュアブル マルチビタミン 180粒入</t>
   </si>
   <si>
+    <t>https://tomoniglobal.com/../assets/img/product/2020/1603954680.687321.png</t>
+  </si>
+  <si>
     <t>MOSTチュアブル　ビタミンC　180粒</t>
   </si>
   <si>
+    <t>https://tomoniglobal.com/../assets/img/product/2020/1603954703.169783.png</t>
+  </si>
+  <si>
     <t>オリヒロ　MOST　モストチュアブル　亜鉛　ぶどう味　(180粒)　栄養機能食品　※軽減税率対象商品</t>
   </si>
   <si>
+    <t>https://tomoniglobal.com/../assets/img/product/2020/1603954726.80390.png</t>
+  </si>
+  <si>
     <t>Giấm đen giảm cân Nhật</t>
   </si>
   <si>
+    <t>https://tomoniglobal.com/../assets/img/product/2020/1603954748.503858.png</t>
+  </si>
+  <si>
     <t>◆オリヒロ ＭＯＳＴチュアブル　コラーゲン 180粒※発送まで7〜11日程</t>
   </si>
   <si>
+    <t>https://tomoniglobal.com/../assets/img/product/2020/1603954773.73740.png</t>
+  </si>
+  <si>
     <t>Đột quỵ Orihiro 60v</t>
   </si>
   <si>
+    <t>https://tomoniglobal.com/../assets/img/product/2020/1603954798.145888.png</t>
+  </si>
+  <si>
     <t>ORIHIRO 発酵黒ニンニク香醋 180粒</t>
   </si>
   <si>
+    <t>https://tomoniglobal.com/../assets/img/product/2020/1603954824.41115.png</t>
+  </si>
+  <si>
     <t>オリヒロ MOSTチュアブル マルチビタミン&amp;ミネラル 180粒</t>
   </si>
   <si>
+    <t>https://tomoniglobal.com/../assets/img/product/2020/1603954851.224757.png</t>
+  </si>
+  <si>
     <t>none</t>
   </si>
   <si>
+    <t>https://tomoniglobal.com/../assets/img/product/2020/1603954884.00312.png</t>
+  </si>
+  <si>
     <t>MOSTチュアブル 鉄+葉酸 90日分 180粒</t>
+  </si>
+  <si>
+    <t>https://tomoniglobal.com/../assets/img/product/2020/1603954923.673682.png</t>
   </si>
   <si>
     <t>NỘI DUNG THANH TOÁN</t>
@@ -1585,8 +1630,8 @@
       <c r="M26" s="19">
         <v>0</v>
       </c>
-      <c r="N26" s="19">
-        <v>0.0</v>
+      <c r="N26" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="O26" s="22"/>
       <c r="P26" s="23"/>
@@ -1605,7 +1650,7 @@
         <v>4971493101597</v>
       </c>
       <c r="E27" s="66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27" s="19">
         <v>1</v>
@@ -1629,8 +1674,8 @@
       <c r="M27" s="19">
         <v>0</v>
       </c>
-      <c r="N27" s="19">
-        <v>0.0</v>
+      <c r="N27" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="O27" s="22"/>
       <c r="P27" s="23"/>
@@ -1649,7 +1694,7 @@
         <v>4971493102112</v>
       </c>
       <c r="E28" s="66" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28" s="19">
         <v>7</v>
@@ -1673,8 +1718,8 @@
       <c r="M28" s="19">
         <v>0</v>
       </c>
-      <c r="N28" s="19">
-        <v>0.0</v>
+      <c r="N28" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="O28" s="22"/>
     </row>
@@ -1692,7 +1737,7 @@
         <v>4971493102426</v>
       </c>
       <c r="E29" s="66" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F29" s="19">
         <v>2</v>
@@ -1716,8 +1761,8 @@
       <c r="M29" s="19">
         <v>0</v>
       </c>
-      <c r="N29" s="19">
-        <v>0.0</v>
+      <c r="N29" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="O29" s="22"/>
     </row>
@@ -1735,7 +1780,7 @@
         <v>4971493104031</v>
       </c>
       <c r="E30" s="66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F30" s="19">
         <v>3</v>
@@ -1759,8 +1804,8 @@
       <c r="M30" s="19">
         <v>0</v>
       </c>
-      <c r="N30" s="19">
-        <v>0.0</v>
+      <c r="N30" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="O30" s="22"/>
     </row>
@@ -1778,7 +1823,7 @@
         <v>4971493104055</v>
       </c>
       <c r="E31" s="66" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F31" s="19">
         <v>2</v>
@@ -1802,8 +1847,8 @@
       <c r="M31" s="19">
         <v>0</v>
       </c>
-      <c r="N31" s="19">
-        <v>0.0</v>
+      <c r="N31" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="O31" s="22"/>
     </row>
@@ -1821,7 +1866,7 @@
         <v>4971493104062</v>
       </c>
       <c r="E32" s="66" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F32" s="19">
         <v>2</v>
@@ -1845,8 +1890,8 @@
       <c r="M32" s="19">
         <v>0</v>
       </c>
-      <c r="N32" s="19">
-        <v>0.0</v>
+      <c r="N32" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="O32" s="22"/>
     </row>
@@ -1864,7 +1909,7 @@
         <v>4971493104901</v>
       </c>
       <c r="E33" s="66" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F33" s="19">
         <v>2</v>
@@ -1888,8 +1933,8 @@
       <c r="M33" s="19">
         <v>0</v>
       </c>
-      <c r="N33" s="19">
-        <v>0.0</v>
+      <c r="N33" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="O33" s="22"/>
     </row>
@@ -1907,7 +1952,7 @@
         <v>4971493105007</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F34" s="19">
         <v>50</v>
@@ -1931,8 +1976,8 @@
       <c r="M34" s="19">
         <v>24</v>
       </c>
-      <c r="N34" s="19">
-        <v>3.1</v>
+      <c r="N34" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="O34" s="22"/>
     </row>
@@ -1950,7 +1995,7 @@
         <v>4971493105397</v>
       </c>
       <c r="E35" s="66" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F35" s="19">
         <v>3</v>
@@ -1974,8 +2019,8 @@
       <c r="M35" s="19">
         <v>0</v>
       </c>
-      <c r="N35" s="19">
-        <v>0.0</v>
+      <c r="N35" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="O35" s="22"/>
     </row>
@@ -1993,7 +2038,7 @@
         <v>4971493105861</v>
       </c>
       <c r="E36" s="66" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F36" s="19">
         <v>20</v>
@@ -2017,8 +2062,8 @@
       <c r="M36" s="19">
         <v>33</v>
       </c>
-      <c r="N36" s="19">
-        <v>5.1</v>
+      <c r="N36" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="O36" s="22"/>
     </row>
@@ -2036,7 +2081,7 @@
         <v>4971493106127</v>
       </c>
       <c r="E37" s="66" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F37" s="19">
         <v>2</v>
@@ -2060,8 +2105,8 @@
       <c r="M37" s="19">
         <v>0</v>
       </c>
-      <c r="N37" s="19">
-        <v>0.0</v>
+      <c r="N37" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="O37" s="22"/>
     </row>
@@ -2079,7 +2124,7 @@
         <v>4971493106660</v>
       </c>
       <c r="E38" s="66" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F38" s="19">
         <v>3</v>
@@ -2103,8 +2148,8 @@
       <c r="M38" s="19">
         <v>0</v>
       </c>
-      <c r="N38" s="19">
-        <v>0.0</v>
+      <c r="N38" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="O38" s="22"/>
     </row>
@@ -2122,7 +2167,7 @@
         <v>4571157259109</v>
       </c>
       <c r="E39" s="66" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F39" s="19">
         <v>5</v>
@@ -2146,8 +2191,8 @@
       <c r="M39" s="19">
         <v>0</v>
       </c>
-      <c r="N39" s="19">
-        <v>0.0</v>
+      <c r="N39" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="O39" s="22"/>
     </row>
@@ -2165,7 +2210,7 @@
         <v>4971493104048</v>
       </c>
       <c r="E40" s="66" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F40" s="19">
         <v>2</v>
@@ -2189,8 +2234,8 @@
       <c r="M40" s="19">
         <v>0</v>
       </c>
-      <c r="N40" s="19">
-        <v>0.0</v>
+      <c r="N40" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="O40" s="22"/>
     </row>
@@ -2848,7 +2893,7 @@
     </row>
     <row r="23" spans="1:16" customHeight="1" ht="28.95" s="12" customFormat="1">
       <c r="A23" s="62" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
@@ -2891,16 +2936,16 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1">
